--- a/week5/lectures/New Microsoft Excel Worksheet.xlsx
+++ b/week5/lectures/New Microsoft Excel Worksheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liam\Desktop\comp3331\week5\lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D040C3-0515-44DC-A1BC-02D9AD28BD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42B968F-09EB-4165-A831-7ABBEEAD1A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11196" yWindow="168" windowWidth="9876" windowHeight="8724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="seq_ack" sheetId="1" r:id="rId1"/>
+    <sheet name="exchange" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,8 +52,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A7AED674-61A4-422B-A1EE-78F321540BF0}</author>
+    <author>tc={E6CB39D7-206D-4E47-8630-0A06604A0114}</author>
+    <author>tc={F36F30A5-BEA5-456C-924E-DA0C80759A30}</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{A7AED674-61A4-422B-A1EE-78F321540BF0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    randomly chose seq number between 0 and 2^32-1</t>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{E6CB39D7-206D-4E47-8630-0A06604A0114}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    randomly chose seq number between 0 and 2^32-1</t>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="2" shapeId="0" xr:uid="{F36F30A5-BEA5-456C-924E-DA0C80759A30}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    randomly chose seq number between 0 and 2^32-1</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="53">
   <si>
     <t>seq</t>
   </si>
@@ -109,13 +146,115 @@
   </si>
   <si>
     <t xml:space="preserve">It can not send ACK with 250 because it only receives everything up to ACK 150. </t>
+  </si>
+  <si>
+    <t>SYNbit</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>ACKbit</t>
+  </si>
+  <si>
+    <t>ACKnum</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Listen state</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x+1</t>
+  </si>
+  <si>
+    <t>ESTAB</t>
+  </si>
+  <si>
+    <t>SYNACK/SYNRCVD</t>
+  </si>
+  <si>
+    <t>y+1</t>
+  </si>
+  <si>
+    <t>SYNSENT(20 bytes)</t>
+  </si>
+  <si>
+    <t>SYN</t>
+  </si>
+  <si>
+    <t>FIN_WAIT_1</t>
+  </si>
+  <si>
+    <t>FIN_WAIT_2</t>
+  </si>
+  <si>
+    <t>TIMED_WAIT</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>CLOSE_WAIT</t>
+  </si>
+  <si>
+    <t>LAST_ACK</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
+  </si>
+  <si>
+    <t>FINbit</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>can no longer send but can receive data</t>
+  </si>
+  <si>
+    <t>can still send data</t>
+  </si>
+  <si>
+    <t>wait for server close</t>
+  </si>
+  <si>
+    <t>can no longer send data</t>
+  </si>
+  <si>
+    <t>timed wait for 2*segment lifetime</t>
+  </si>
+  <si>
+    <t>FIN normal termination</t>
+  </si>
+  <si>
+    <t>FIN normal termination with only one ACK</t>
+  </si>
+  <si>
+    <t>1.5RTT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,14 +269,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +295,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -175,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,12 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -200,9 +333,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -225,6 +387,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Liam Li Chen" id="{7B627DD6-70A0-40D0-865C-C630F6EE21B0}" userId="Liam Li Chen" providerId="None"/>
+  <person displayName="CHEN Liam" id="{ABD401D7-38CF-45C0-88F0-AC4B63160D27}" userId="bc982f244ac86328" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -497,38 +660,52 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D4" dT="2021-07-11T13:21:46.69" personId="{ABD401D7-38CF-45C0-88F0-AC4B63160D27}" id="{A7AED674-61A4-422B-A1EE-78F321540BF0}">
+    <text>randomly chose seq number between 0 and 2^32-1</text>
+  </threadedComment>
+  <threadedComment ref="D13" dT="2021-07-11T13:21:46.69" personId="{ABD401D7-38CF-45C0-88F0-AC4B63160D27}" id="{E6CB39D7-206D-4E47-8630-0A06604A0114}">
+    <text>randomly chose seq number between 0 and 2^32-1</text>
+  </threadedComment>
+  <threadedComment ref="D25" dT="2021-07-11T13:21:46.69" personId="{ABD401D7-38CF-45C0-88F0-AC4B63160D27}" id="{F36F30A5-BEA5-456C-924E-DA0C80759A30}">
+    <text>randomly chose seq number between 0 and 2^32-1</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -578,17 +755,17 @@
         <v>6</v>
       </c>
       <c r="H3" s="2">
-        <v>101</v>
+        <v>33000</v>
       </c>
       <c r="I3" s="2">
-        <v>1024</v>
+        <v>55000</v>
       </c>
       <c r="J3" s="1">
-        <v>2048</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>10</v>
@@ -605,20 +782,20 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2">
-        <v>1024</v>
+        <v>55000</v>
       </c>
       <c r="I4" s="1">
         <f>H3+J3</f>
-        <v>2149</v>
+        <v>33001</v>
       </c>
       <c r="J4" s="1">
-        <v>1024</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -639,18 +816,18 @@
       </c>
       <c r="H5" s="1">
         <f>I4</f>
-        <v>2149</v>
+        <v>33001</v>
       </c>
       <c r="I5" s="1">
         <f>H4+J4</f>
-        <v>2048</v>
+        <v>55001</v>
       </c>
       <c r="J5" s="1">
-        <v>2048</v>
+        <v>200</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <f>C5</f>
@@ -667,12 +844,20 @@
         <v>7</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="15">
+        <f>I5</f>
+        <v>55001</v>
+      </c>
+      <c r="I6" s="15">
+        <f>H5+J5</f>
+        <v>33201</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1000</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -684,26 +869,53 @@
         <f>B6+D6</f>
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="19"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="H7" s="15">
+        <f>I6</f>
+        <v>33201</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" ref="I7:I9" si="0">H6+J6</f>
+        <v>56001</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="15">
+        <f>I7</f>
+        <v>56001</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>33202</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>56002</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -721,7 +933,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -736,7 +948,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>10</v>
@@ -752,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <f>B12+D12</f>
@@ -768,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <f>B13+D13</f>
@@ -784,7 +996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -799,7 +1011,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -808,13 +1020,13 @@
         <v>200</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:C17" si="0">B13+D13</f>
+        <f t="shared" ref="C16:C17" si="1">B13+D13</f>
         <v>3010</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -823,53 +1035,53 @@
         <v>200</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3110</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="G19" s="10" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="G19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="G20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -884,7 +1096,7 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -900,7 +1112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -924,7 +1136,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -943,14 +1155,14 @@
         <v>150</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>50</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -974,7 +1186,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -998,7 +1210,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
@@ -1018,7 +1230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1">
@@ -1038,10 +1250,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>250</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1058,7 +1270,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
@@ -1072,7 +1284,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -1084,34 +1296,34 @@
         <v>50</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1130,4 +1342,476 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C255ABA8-CE0E-4DB0-9EB3-237C14387548}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" customWidth="1"/>
+    <col min="8" max="8" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="9">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/week5/lectures/New Microsoft Excel Worksheet.xlsx
+++ b/week5/lectures/New Microsoft Excel Worksheet.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liam\Desktop\comp3331\week5\lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42B968F-09EB-4165-A831-7ABBEEAD1A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F322A58-B5E4-4379-ACDE-CFCD494C8A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11196" yWindow="168" windowWidth="9876" windowHeight="8724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="seq_ack" sheetId="1" r:id="rId1"/>
-    <sheet name="exchange" sheetId="2" r:id="rId2"/>
+    <sheet name="delay" sheetId="3" r:id="rId2"/>
+    <sheet name="timeout" sheetId="4" r:id="rId3"/>
+    <sheet name="exchange" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="61">
   <si>
     <t>seq</t>
   </si>
@@ -248,6 +250,30 @@
   </si>
   <si>
     <t>1.5RTT</t>
+  </si>
+  <si>
+    <t>ESTIMATED RTT</t>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>DevRTT(k)</t>
+  </si>
+  <si>
+    <t>New Sample RTT</t>
+  </si>
+  <si>
+    <t>DevRTT</t>
   </si>
 </sst>
 </file>
@@ -314,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,6 +378,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,34 +707,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -737,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -755,17 +784,17 @@
         <v>6</v>
       </c>
       <c r="H3" s="2">
-        <v>33000</v>
-      </c>
-      <c r="I3" s="2">
-        <v>55000</v>
+        <v>4676</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>10</v>
@@ -782,11 +811,11 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2">
-        <v>55000</v>
+        <v>3334</v>
       </c>
       <c r="I4" s="1">
         <f>H3+J3</f>
-        <v>33001</v>
+        <v>4677</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -795,7 +824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -816,18 +845,18 @@
       </c>
       <c r="H5" s="1">
         <f>I4</f>
-        <v>33001</v>
+        <v>4677</v>
       </c>
       <c r="I5" s="1">
         <f>H4+J4</f>
-        <v>55001</v>
+        <v>3335</v>
       </c>
       <c r="J5" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <f>C5</f>
@@ -846,18 +875,20 @@
       <c r="G6" s="1"/>
       <c r="H6" s="15">
         <f>I5</f>
-        <v>55001</v>
+        <v>3335</v>
       </c>
       <c r="I6" s="15">
         <f>H5+J5</f>
-        <v>33201</v>
+        <v>4777</v>
       </c>
       <c r="J6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -869,53 +900,58 @@
         <f>B6+D6</f>
         <v>17</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H7" s="15">
         <f>I6</f>
-        <v>33201</v>
+        <v>4777</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" ref="I7:I9" si="0">H6+J6</f>
-        <v>56001</v>
+        <v>3375</v>
       </c>
       <c r="J7" s="15">
         <v>1</v>
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H8" s="15">
         <f>I7</f>
-        <v>56001</v>
+        <v>3375</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="0"/>
-        <v>33202</v>
+        <v>4778</v>
       </c>
       <c r="J8" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="H9" s="16">
+        <f>I8</f>
+        <v>4778</v>
+      </c>
       <c r="I9" s="15">
         <f t="shared" si="0"/>
-        <v>56002</v>
+        <v>3376</v>
       </c>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -933,7 +969,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -948,7 +984,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>10</v>
@@ -964,7 +1000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <f>B12+D12</f>
@@ -980,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <f>B13+D13</f>
@@ -996,7 +1032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +1047,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1062,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1041,46 +1077,46 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="G19" s="17" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="G19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="G20" s="16" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="G20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1172,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1222,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1246,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
@@ -1230,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1">
@@ -1250,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="6">
@@ -1270,7 +1306,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
@@ -1284,7 +1320,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -1296,34 +1332,34 @@
         <v>50</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1345,6 +1381,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC15CBA-D19C-4ADB-8C6B-11FBEC863C8F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF9864F-4763-4603-BF32-B719483C86D9}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <f>(1-B5)*B2+B5*(ABS(B3-B1))</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <f>(1-B4)*B1+B4*B3</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <f>B7+4*B6</f>
+        <v>14.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C255ABA8-CE0E-4DB0-9EB3-237C14387548}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -1352,25 +1496,25 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" customWidth="1"/>
-    <col min="8" max="8" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
@@ -1393,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1407,7 +1551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1431,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="9">
         <f>C4</f>
@@ -1456,7 +1600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1485,7 +1629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>52</v>
       </c>
@@ -1497,7 +1641,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1507,12 +1651,12 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
@@ -1535,7 +1679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1543,7 +1687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
@@ -1589,7 +1733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1612,7 +1756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>26</v>
       </c>
@@ -1633,7 +1777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1656,7 +1800,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="7">
         <v>1</v>
       </c>
@@ -1676,17 +1820,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
@@ -1709,7 +1853,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1717,7 +1861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1740,7 +1884,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <v>1</v>
       </c>
@@ -1763,7 +1907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1784,7 +1928,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="7">
         <v>1</v>
       </c>
@@ -1804,7 +1948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
